--- a/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI\Desktop\IOARR CURPAHUASI\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0004-CURPAHUASI\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FFDB8-7C82-468D-B2BF-64D8BEE13B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,40 +130,18 @@
     <t>CRONOGRAMA FISICO</t>
   </si>
   <si>
-    <r>
-      <t>Cronograma de inversión IOARR: “</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCION ADUCATIVA  PRIMARIA N° 54394  "SEÑOR DE LOS MILAGROS"  DISTRITO - CURPAHUASI, PROVINCIA - GRAU, DEPARTAMENTO – APURIMAC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
+    <t>|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +154,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -664,11 +634,11 @@
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,101 +650,101 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,13 +762,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,43 +783,43 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,23 +843,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2387600" y="1529080"/>
+          <a:off x="2341880" y="1488440"/>
           <a:ext cx="807720" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -949,7 +919,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +979,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,7 +1039,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1099,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1159,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +1219,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1279,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1339,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1399,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,14 +1766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1889,13 +1859,12 @@
       <c r="B6" s="3"/>
       <c r="C6" s="10">
         <f>F6</f>
-        <v>109453.77</v>
+        <v>139941.43</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
-        <f>1346.73+10330+201.6+11221.58+86353.86</f>
-        <v>109453.77</v>
+        <v>139941.43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1905,16 +1874,15 @@
       <c r="B7" s="3"/>
       <c r="C7" s="10">
         <f>F7/2</f>
-        <v>34573.71</v>
+        <v>45518.934999999998</v>
       </c>
       <c r="D7" s="10">
         <f>F7/2</f>
-        <v>34573.71</v>
+        <v>45518.934999999998</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <f>62443.64+1009.91+5693.87</f>
-        <v>69147.42</v>
+        <v>91037.87</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1969,16 +1937,16 @@
       <c r="B11" s="5"/>
       <c r="C11" s="13">
         <f>SUM(C4:C10)</f>
-        <v>150617.23000000001</v>
+        <v>192050.11499999999</v>
       </c>
       <c r="D11" s="13">
         <f>SUM(D4:D10)</f>
-        <v>55264.72</v>
+        <v>66209.944999999992</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15">
         <f>+F6+F7+F8+F9+F10+F4</f>
-        <v>205881.95</v>
+        <v>258260.06</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2073,11 +2041,11 @@
       </c>
       <c r="C17" s="20">
         <f>SUM(C11:C16)</f>
-        <v>180498.36500000002</v>
+        <v>221931.25</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(D11:D16)</f>
-        <v>85145.854999999996</v>
+        <v>96091.079999999987</v>
       </c>
       <c r="E17" s="20">
         <f>SUM(E11:E16)</f>
@@ -2095,7 +2063,7 @@
       <c r="E18" s="44"/>
       <c r="F18" s="21">
         <f>SUM(F11:F16)+0.01</f>
-        <v>336616.05</v>
+        <v>388994.16</v>
       </c>
     </row>
   </sheetData>
@@ -2111,15 +2079,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A532DE4-09EC-4C8A-AF9A-DCC5B11000F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2101,7 @@
     <row r="1" spans="1:18" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="str">
         <f>FINANCIERO!A1</f>
-        <v>Cronograma de inversión IOARR: “OOPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCION ADUCATIVA  PRIMARIA N° 54394  "SEÑOR DE LOS MILAGROS"  DISTRITO - CURPAHUASI, PROVINCIA - GRAU, DEPARTAMENTO – APURIMAC”</v>
+        <v>|</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2328,7 +2296,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="25">
         <f>FINANCIERO!F6</f>
-        <v>109453.77</v>
+        <v>139941.43</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2353,7 +2321,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="25">
         <f>FINANCIERO!F7</f>
-        <v>69147.42</v>
+        <v>91037.87</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2453,7 +2421,7 @@
       <c r="Q12" s="29"/>
       <c r="R12" s="30">
         <f>+R7+R8+R9+R10+R11+R5</f>
-        <v>205881.95</v>
+        <v>258260.06</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="23" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -2614,14 +2582,14 @@
       <c r="E19" s="59"/>
       <c r="F19" s="60">
         <f>FINANCIERO!C17</f>
-        <v>180498.36500000002</v>
+        <v>221931.25</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
       <c r="I19" s="62"/>
       <c r="J19" s="60">
         <f>FINANCIERO!D17</f>
-        <v>85145.854999999996</v>
+        <v>96091.079999999987</v>
       </c>
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
@@ -2657,7 +2625,7 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="31">
         <f>SUM(R12:R17)+0.01</f>
-        <v>336616.05</v>
+        <v>388994.16</v>
       </c>
     </row>
   </sheetData>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
@@ -859,7 +859,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +919,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,7 +979,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,7 +1039,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1099,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1159,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- CURPAHUASI.xlsx
@@ -859,7 +859,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +919,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,7 +979,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,7 +1039,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1099,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1159,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1783,7 @@
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
